--- a/docs/GPS devices.xlsx
+++ b/docs/GPS devices.xlsx
@@ -201,8 +201,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -266,7 +270,7 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -284,6 +288,8 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -301,6 +307,8 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,7 +590,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
